--- a/retailer/data/orders.xlsx
+++ b/retailer/data/orders.xlsx
@@ -1,50 +1,830 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0f5092fb7e2292c0/Desktop/retailer/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{E8875F85-8B52-4566-8425-002D138EF008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64E207C8-6B0D-4E99-B986-780EF873714A}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="10965" windowHeight="11512" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>quantity</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="266">
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>customer_id</t>
+  </si>
+  <si>
+    <t>customer_name</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>amount</t>
   </si>
   <si>
     <t>status</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>retailer</t>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>delivery_date</t>
+    <t>products</t>
+  </si>
+  <si>
+    <t>ORD-1001</t>
+  </si>
+  <si>
+    <t>ORD-1002</t>
+  </si>
+  <si>
+    <t>ORD-1003</t>
+  </si>
+  <si>
+    <t>ORD-1004</t>
+  </si>
+  <si>
+    <t>ORD-1005</t>
+  </si>
+  <si>
+    <t>ORD-1006</t>
+  </si>
+  <si>
+    <t>ORD-1007</t>
+  </si>
+  <si>
+    <t>ORD-1008</t>
+  </si>
+  <si>
+    <t>ORD-1009</t>
+  </si>
+  <si>
+    <t>ORD-1010</t>
+  </si>
+  <si>
+    <t>ORD-1011</t>
+  </si>
+  <si>
+    <t>ORD-1012</t>
+  </si>
+  <si>
+    <t>ORD-1013</t>
+  </si>
+  <si>
+    <t>ORD-1014</t>
+  </si>
+  <si>
+    <t>ORD-1015</t>
+  </si>
+  <si>
+    <t>ORD-1016</t>
+  </si>
+  <si>
+    <t>ORD-1017</t>
+  </si>
+  <si>
+    <t>ORD-1018</t>
+  </si>
+  <si>
+    <t>ORD-1019</t>
+  </si>
+  <si>
+    <t>ORD-1020</t>
+  </si>
+  <si>
+    <t>ORD-1021</t>
+  </si>
+  <si>
+    <t>ORD-1022</t>
+  </si>
+  <si>
+    <t>ORD-1023</t>
+  </si>
+  <si>
+    <t>ORD-1024</t>
+  </si>
+  <si>
+    <t>ORD-1025</t>
+  </si>
+  <si>
+    <t>ORD-1026</t>
+  </si>
+  <si>
+    <t>ORD-1027</t>
+  </si>
+  <si>
+    <t>ORD-1028</t>
+  </si>
+  <si>
+    <t>ORD-1029</t>
+  </si>
+  <si>
+    <t>ORD-1030</t>
+  </si>
+  <si>
+    <t>ORD-1031</t>
+  </si>
+  <si>
+    <t>ORD-1032</t>
+  </si>
+  <si>
+    <t>ORD-1033</t>
+  </si>
+  <si>
+    <t>ORD-1034</t>
+  </si>
+  <si>
+    <t>ORD-1035</t>
+  </si>
+  <si>
+    <t>ORD-1036</t>
+  </si>
+  <si>
+    <t>ORD-1037</t>
+  </si>
+  <si>
+    <t>ORD-1038</t>
+  </si>
+  <si>
+    <t>ORD-1039</t>
+  </si>
+  <si>
+    <t>ORD-1040</t>
+  </si>
+  <si>
+    <t>ORD-1041</t>
+  </si>
+  <si>
+    <t>ORD-1042</t>
+  </si>
+  <si>
+    <t>ORD-1043</t>
+  </si>
+  <si>
+    <t>ORD-1044</t>
+  </si>
+  <si>
+    <t>ORD-1045</t>
+  </si>
+  <si>
+    <t>ORD-1046</t>
+  </si>
+  <si>
+    <t>ORD-1047</t>
+  </si>
+  <si>
+    <t>ORD-1048</t>
+  </si>
+  <si>
+    <t>ORD-1049</t>
+  </si>
+  <si>
+    <t>ORD-1050</t>
+  </si>
+  <si>
+    <t>ORD-1051</t>
+  </si>
+  <si>
+    <t>ORD-1052</t>
+  </si>
+  <si>
+    <t>ORD-1053</t>
+  </si>
+  <si>
+    <t>ORD-1054</t>
+  </si>
+  <si>
+    <t>ORD-1055</t>
+  </si>
+  <si>
+    <t>ORD-1056</t>
+  </si>
+  <si>
+    <t>ORD-1057</t>
+  </si>
+  <si>
+    <t>ORD-1058</t>
+  </si>
+  <si>
+    <t>ORD-1059</t>
+  </si>
+  <si>
+    <t>ORD-1060</t>
+  </si>
+  <si>
+    <t>ORD-1061</t>
+  </si>
+  <si>
+    <t>ORD-1062</t>
+  </si>
+  <si>
+    <t>ORD-1063</t>
+  </si>
+  <si>
+    <t>ORD-1064</t>
+  </si>
+  <si>
+    <t>ORD-1065</t>
+  </si>
+  <si>
+    <t>ORD-1066</t>
+  </si>
+  <si>
+    <t>ORD-1067</t>
+  </si>
+  <si>
+    <t>ORD-1068</t>
+  </si>
+  <si>
+    <t>ORD-1069</t>
+  </si>
+  <si>
+    <t>ORD-1070</t>
+  </si>
+  <si>
+    <t>ORD-1071</t>
+  </si>
+  <si>
+    <t>ORD-1072</t>
+  </si>
+  <si>
+    <t>ORD-1073</t>
+  </si>
+  <si>
+    <t>ORD-1074</t>
+  </si>
+  <si>
+    <t>ORD-1075</t>
+  </si>
+  <si>
+    <t>ORD-1076</t>
+  </si>
+  <si>
+    <t>ORD-1077</t>
+  </si>
+  <si>
+    <t>ORD-1078</t>
+  </si>
+  <si>
+    <t>ORD-1079</t>
+  </si>
+  <si>
+    <t>ORD-1080</t>
+  </si>
+  <si>
+    <t>ORD-1081</t>
+  </si>
+  <si>
+    <t>ORD-1082</t>
+  </si>
+  <si>
+    <t>ORD-1083</t>
+  </si>
+  <si>
+    <t>ORD-1084</t>
+  </si>
+  <si>
+    <t>ORD-1085</t>
+  </si>
+  <si>
+    <t>ORD-1086</t>
+  </si>
+  <si>
+    <t>ORD-1087</t>
+  </si>
+  <si>
+    <t>ORD-1088</t>
+  </si>
+  <si>
+    <t>ORD-1089</t>
+  </si>
+  <si>
+    <t>ORD-1090</t>
+  </si>
+  <si>
+    <t>ORD-1091</t>
+  </si>
+  <si>
+    <t>ORD-1092</t>
+  </si>
+  <si>
+    <t>ORD-1093</t>
+  </si>
+  <si>
+    <t>ORD-1094</t>
+  </si>
+  <si>
+    <t>ORD-1095</t>
+  </si>
+  <si>
+    <t>ORD-1096</t>
+  </si>
+  <si>
+    <t>ORD-1097</t>
+  </si>
+  <si>
+    <t>ORD-1098</t>
+  </si>
+  <si>
+    <t>ORD-1099</t>
+  </si>
+  <si>
+    <t>ORD-1100</t>
+  </si>
+  <si>
+    <t>CUST-015</t>
+  </si>
+  <si>
+    <t>CUST-027</t>
+  </si>
+  <si>
+    <t>CUST-026</t>
+  </si>
+  <si>
+    <t>CUST-012</t>
+  </si>
+  <si>
+    <t>CUST-023</t>
+  </si>
+  <si>
+    <t>CUST-003</t>
+  </si>
+  <si>
+    <t>CUST-021</t>
+  </si>
+  <si>
+    <t>CUST-001</t>
+  </si>
+  <si>
+    <t>CUST-016</t>
+  </si>
+  <si>
+    <t>CUST-010</t>
+  </si>
+  <si>
+    <t>CUST-022</t>
+  </si>
+  <si>
+    <t>CUST-017</t>
+  </si>
+  <si>
+    <t>CUST-020</t>
+  </si>
+  <si>
+    <t>CUST-028</t>
+  </si>
+  <si>
+    <t>CUST-008</t>
+  </si>
+  <si>
+    <t>CUST-007</t>
+  </si>
+  <si>
+    <t>CUST-025</t>
+  </si>
+  <si>
+    <t>CUST-002</t>
+  </si>
+  <si>
+    <t>CUST-018</t>
+  </si>
+  <si>
+    <t>CUST-014</t>
+  </si>
+  <si>
+    <t>CUST-013</t>
+  </si>
+  <si>
+    <t>CUST-011</t>
+  </si>
+  <si>
+    <t>CUST-024</t>
+  </si>
+  <si>
+    <t>CUST-005</t>
+  </si>
+  <si>
+    <t>CUST-009</t>
+  </si>
+  <si>
+    <t>CUST-029</t>
+  </si>
+  <si>
+    <t>CUST-030</t>
+  </si>
+  <si>
+    <t>CUST-006</t>
+  </si>
+  <si>
+    <t>Colton Thompson</t>
+  </si>
+  <si>
+    <t>Erica Thompson</t>
+  </si>
+  <si>
+    <t>William Delgado</t>
+  </si>
+  <si>
+    <t>Patricia Murray</t>
+  </si>
+  <si>
+    <t>Sara Dixon</t>
+  </si>
+  <si>
+    <t>James Cross</t>
+  </si>
+  <si>
+    <t>Tom Robbins</t>
+  </si>
+  <si>
+    <t>Erin Anderson</t>
+  </si>
+  <si>
+    <t>Vicki Garcia</t>
+  </si>
+  <si>
+    <t>Katherine Mckay</t>
+  </si>
+  <si>
+    <t>Victor Mayer</t>
+  </si>
+  <si>
+    <t>Brandon Gay</t>
+  </si>
+  <si>
+    <t>James Rodriguez</t>
+  </si>
+  <si>
+    <t>Micheal Cisneros</t>
+  </si>
+  <si>
+    <t>Ryan Thompson</t>
+  </si>
+  <si>
+    <t>Mark Murphy</t>
+  </si>
+  <si>
+    <t>Terry Massey</t>
+  </si>
+  <si>
+    <t>Cody Delacruz</t>
+  </si>
+  <si>
+    <t>Logan Hale</t>
+  </si>
+  <si>
+    <t>Autumn Alexander</t>
+  </si>
+  <si>
+    <t>Nicole Miller</t>
+  </si>
+  <si>
+    <t>Whitney Padilla</t>
+  </si>
+  <si>
+    <t>Austin Clark</t>
+  </si>
+  <si>
+    <t>Felicia Price</t>
+  </si>
+  <si>
+    <t>Spencer Foley</t>
+  </si>
+  <si>
+    <t>Molly Miller</t>
+  </si>
+  <si>
+    <t>David Haley</t>
+  </si>
+  <si>
+    <t>Tracy Allen</t>
+  </si>
+  <si>
+    <t>2025-07-14</t>
+  </si>
+  <si>
+    <t>Shipped</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>Processing</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Product P35, Product G18, Product L4, Product D2, Product L9</t>
+  </si>
+  <si>
+    <t>Product C23, Product U14, Product D2</t>
+  </si>
+  <si>
+    <t>Product N26, Product S44, Product Y22</t>
+  </si>
+  <si>
+    <t>Product Q38, Product Y22, Product O30, Product S45</t>
+  </si>
+  <si>
+    <t>Product U14, Product R19, Product C15, Product X17, Product R28</t>
+  </si>
+  <si>
+    <t>Product H11, Product P41, Product B34</t>
+  </si>
+  <si>
+    <t>Product K1</t>
+  </si>
+  <si>
+    <t>Product Q38, Product B42</t>
+  </si>
+  <si>
+    <t>Product O30</t>
+  </si>
+  <si>
+    <t>Product V6, Product P41, Product L9, Product C40</t>
+  </si>
+  <si>
+    <t>Product K12, Product R28, Product Q50</t>
+  </si>
+  <si>
+    <t>Product S27, Product G39, Product F5, Product V29, Product O30</t>
+  </si>
+  <si>
+    <t>Product Q50, Product P35</t>
+  </si>
+  <si>
+    <t>Product W16</t>
+  </si>
+  <si>
+    <t>Product V29, Product S44, Product M20</t>
+  </si>
+  <si>
+    <t>Product F5</t>
+  </si>
+  <si>
+    <t>Product P35, Product H49, Product B42</t>
+  </si>
+  <si>
+    <t>Product P32, Product I7, Product U33</t>
+  </si>
+  <si>
+    <t>Product L4</t>
+  </si>
+  <si>
+    <t>Product G18</t>
+  </si>
+  <si>
+    <t>Product V6, Product S45, Product M20, Product Q50</t>
+  </si>
+  <si>
+    <t>Product G39</t>
+  </si>
+  <si>
+    <t>Product K12, Product H46, Product R19, Product S44, Product O30</t>
+  </si>
+  <si>
+    <t>Product T21, Product G10, Product C15</t>
+  </si>
+  <si>
+    <t>Product E8, Product L9, Product D2, Product V6</t>
+  </si>
+  <si>
+    <t>Product V29, Product F36, Product T21, Product K12</t>
+  </si>
+  <si>
+    <t>Product M25, Product G39, Product S44, Product R3, Product Q38</t>
+  </si>
+  <si>
+    <t>Product U14</t>
+  </si>
+  <si>
+    <t>Product H43, Product M25</t>
+  </si>
+  <si>
+    <t>Product B34, Product E8</t>
+  </si>
+  <si>
+    <t>Product Q38, Product P35</t>
+  </si>
+  <si>
+    <t>Product Q38, Product H11, Product M25, Product C23</t>
+  </si>
+  <si>
+    <t>Product Q50</t>
+  </si>
+  <si>
+    <t>Product P32</t>
+  </si>
+  <si>
+    <t>Product V6, Product Z37</t>
+  </si>
+  <si>
+    <t>Product D2, Product L4, Product K1, Product L13, Product S44</t>
+  </si>
+  <si>
+    <t>Product V6, Product M20, Product T24, Product K1, Product K12</t>
+  </si>
+  <si>
+    <t>Product H49</t>
+  </si>
+  <si>
+    <t>Product P41, Product D2</t>
+  </si>
+  <si>
+    <t>Product K1, Product H11, Product B48, Product I7, Product E8</t>
+  </si>
+  <si>
+    <t>Product O30, Product S45, Product G10, Product L4, Product H11</t>
+  </si>
+  <si>
+    <t>Product V29</t>
+  </si>
+  <si>
+    <t>Product R19</t>
+  </si>
+  <si>
+    <t>Product L13, Product T21, Product S45, Product T24</t>
+  </si>
+  <si>
+    <t>Product U14, Product H49, Product T21</t>
+  </si>
+  <si>
+    <t>Product M20, Product Q38, Product H11</t>
+  </si>
+  <si>
+    <t>Product M25</t>
+  </si>
+  <si>
+    <t>Product F36, Product E8, Product S45, Product V29</t>
+  </si>
+  <si>
+    <t>Product S45</t>
+  </si>
+  <si>
+    <t>Product P35, Product S27</t>
+  </si>
+  <si>
+    <t>Product P41, Product R19, Product O30</t>
+  </si>
+  <si>
+    <t>Product L9, Product B34, Product P32</t>
+  </si>
+  <si>
+    <t>Product C15, Product D2, Product H11, Product U14, Product F5</t>
+  </si>
+  <si>
+    <t>Product I7, Product P41, Product R28, Product C15, Product L4</t>
+  </si>
+  <si>
+    <t>Product L13, Product F5</t>
+  </si>
+  <si>
+    <t>Product D2, Product C23</t>
+  </si>
+  <si>
+    <t>Product S45, Product C15, Product P35, Product V29, Product P41</t>
+  </si>
+  <si>
+    <t>Product Q50, Product Y22</t>
+  </si>
+  <si>
+    <t>Product T21, Product Q38, Product M20, Product N26, Product F5</t>
+  </si>
+  <si>
+    <t>Product B48, Product S27, Product Q38</t>
+  </si>
+  <si>
+    <t>Product T21, Product F36</t>
+  </si>
+  <si>
+    <t>Product E8, Product G10, Product O30</t>
+  </si>
+  <si>
+    <t>Product Y22, Product Q38, Product X17, Product B48</t>
+  </si>
+  <si>
+    <t>Product B42, Product H49</t>
+  </si>
+  <si>
+    <t>Product L4, Product S44</t>
+  </si>
+  <si>
+    <t>Product B42, Product R28, Product R19, Product P32</t>
+  </si>
+  <si>
+    <t>Product E8, Product P32</t>
+  </si>
+  <si>
+    <t>Product Y22, Product R3, Product R19</t>
+  </si>
+  <si>
+    <t>Product B48, Product H11, Product I7, Product T21</t>
+  </si>
+  <si>
+    <t>Product H49, Product Q38, Product L4, Product P41, Product S27</t>
+  </si>
+  <si>
+    <t>Product T24</t>
+  </si>
+  <si>
+    <t>Product M25, Product M20, Product L9, Product K1, Product Y22</t>
+  </si>
+  <si>
+    <t>Product H11, Product I7, Product Z37, Product D2, Product P41</t>
+  </si>
+  <si>
+    <t>Product C15, Product R19, Product I7, Product Q50, Product L4</t>
+  </si>
+  <si>
+    <t>Product Z37, Product L9, Product M20</t>
+  </si>
+  <si>
+    <t>Product P41, Product V6</t>
+  </si>
+  <si>
+    <t>Product G39, Product C23</t>
+  </si>
+  <si>
+    <t>Product F5, Product B34, Product H43, Product H49</t>
+  </si>
+  <si>
+    <t>Product P41, Product Z37, Product Q38</t>
+  </si>
+  <si>
+    <t>Product X17, Product I7</t>
+  </si>
+  <si>
+    <t>Product G39, Product P41, Product C15, Product K12</t>
+  </si>
+  <si>
+    <t>Product U33, Product T24, Product Q38</t>
+  </si>
+  <si>
+    <t>Product C40, Product D2, Product U14, Product E8, Product M20</t>
+  </si>
+  <si>
+    <t>Product V29, Product R31, Product P41, Product H43, Product Y22</t>
+  </si>
+  <si>
+    <t>Product G10</t>
+  </si>
+  <si>
+    <t>Product H46, Product D2, Product G18, Product C15</t>
+  </si>
+  <si>
+    <t>Product H43, Product H11, Product B42, Product M25</t>
+  </si>
+  <si>
+    <t>Product M20, Product S45</t>
+  </si>
+  <si>
+    <t>Product M20, Product Q50, Product H11, Product T21</t>
+  </si>
+  <si>
+    <t>Product H43, Product X17</t>
+  </si>
+  <si>
+    <t>Product P35, Product Q38, Product S44, Product B34</t>
+  </si>
+  <si>
+    <t>Product U14, Product T21, Product M25, Product V29</t>
+  </si>
+  <si>
+    <t>Product R3, Product U33, Product Q50, Product B48</t>
+  </si>
+  <si>
+    <t>Product G39, Product W16, Product F36, Product V29, Product O30</t>
+  </si>
+  <si>
+    <t>Product R3, Product H43, Product R31</t>
+  </si>
+  <si>
+    <t>Product H49, Product C15, Product F36, Product C40, Product S44</t>
+  </si>
+  <si>
+    <t>Product B48, Product S45, Product F5, Product L13, Product I7</t>
+  </si>
+  <si>
+    <t>Product N26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,13 +887,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -151,7 +939,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -185,6 +973,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -219,9 +1008,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -394,14 +1184,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="25.3984375" customWidth="1"/>
+    <col min="3" max="3" width="22.796875" customWidth="1"/>
+    <col min="4" max="4" width="24.1328125" customWidth="1"/>
+    <col min="7" max="7" width="47.265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,8 +1219,2305 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2">
+        <v>4630.78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3">
+        <v>3391.37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4">
+        <v>3123.47</v>
+      </c>
+      <c r="F4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5">
+        <v>4060.13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6">
+        <v>5372.87</v>
+      </c>
+      <c r="F6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7">
+        <v>2678.13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" t="s">
+        <v>163</v>
+      </c>
+      <c r="E8">
+        <v>480.33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9">
+        <v>2376.81</v>
+      </c>
+      <c r="F9" t="s">
+        <v>167</v>
+      </c>
+      <c r="G9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10">
+        <v>1092.0999999999999</v>
+      </c>
+      <c r="F10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11">
+        <v>3713.9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12">
+        <v>3493.91</v>
+      </c>
+      <c r="F12" t="s">
+        <v>165</v>
+      </c>
+      <c r="G12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13">
+        <v>4839.09</v>
+      </c>
+      <c r="F13" t="s">
+        <v>166</v>
+      </c>
+      <c r="G13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E14">
+        <v>2662.47</v>
+      </c>
+      <c r="F14" t="s">
+        <v>166</v>
+      </c>
+      <c r="G14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" t="s">
+        <v>163</v>
+      </c>
+      <c r="E15">
+        <v>1110.95</v>
+      </c>
+      <c r="F15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D16" t="s">
+        <v>163</v>
+      </c>
+      <c r="E16">
+        <v>2937.65</v>
+      </c>
+      <c r="F16" t="s">
+        <v>166</v>
+      </c>
+      <c r="G16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" t="s">
+        <v>163</v>
+      </c>
+      <c r="E17">
+        <v>202.09</v>
+      </c>
+      <c r="F17" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D18" t="s">
+        <v>163</v>
+      </c>
+      <c r="E18">
+        <v>4014.69</v>
+      </c>
+      <c r="F18" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" t="s">
+        <v>137</v>
+      </c>
+      <c r="D19" t="s">
+        <v>163</v>
+      </c>
+      <c r="E19">
+        <v>1653.87</v>
+      </c>
+      <c r="F19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" t="s">
+        <v>163</v>
+      </c>
+      <c r="E20">
+        <v>164.61</v>
+      </c>
+      <c r="F20" t="s">
+        <v>165</v>
+      </c>
+      <c r="G20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" t="s">
+        <v>163</v>
+      </c>
+      <c r="E21">
+        <v>281.05</v>
+      </c>
+      <c r="F21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" t="s">
+        <v>163</v>
+      </c>
+      <c r="E22">
+        <v>3804.18</v>
+      </c>
+      <c r="F22" t="s">
+        <v>164</v>
+      </c>
+      <c r="G22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23">
+        <v>942.23</v>
+      </c>
+      <c r="F23" t="s">
+        <v>164</v>
+      </c>
+      <c r="G23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" t="s">
+        <v>136</v>
+      </c>
+      <c r="D24" t="s">
+        <v>163</v>
+      </c>
+      <c r="E24">
+        <v>4471</v>
+      </c>
+      <c r="F24" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" t="s">
+        <v>150</v>
+      </c>
+      <c r="D25" t="s">
+        <v>163</v>
+      </c>
+      <c r="E25">
+        <v>2234.4499999999998</v>
+      </c>
+      <c r="F25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26">
+        <v>5824.12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>167</v>
+      </c>
+      <c r="G26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27">
+        <v>5696.85</v>
+      </c>
+      <c r="F27" t="s">
+        <v>166</v>
+      </c>
+      <c r="G27" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" t="s">
+        <v>163</v>
+      </c>
+      <c r="E28">
+        <v>5626.95</v>
+      </c>
+      <c r="F28" t="s">
+        <v>166</v>
+      </c>
+      <c r="G28" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29">
+        <v>1239.96</v>
+      </c>
+      <c r="F29" t="s">
+        <v>167</v>
+      </c>
+      <c r="G29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30">
+        <v>2509.9299999999998</v>
+      </c>
+      <c r="F30" t="s">
+        <v>165</v>
+      </c>
+      <c r="G30" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" t="s">
+        <v>163</v>
+      </c>
+      <c r="E31">
+        <v>1938.31</v>
+      </c>
+      <c r="F31" t="s">
+        <v>167</v>
+      </c>
+      <c r="G31" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" t="s">
+        <v>163</v>
+      </c>
+      <c r="E32">
+        <v>3077.72</v>
+      </c>
+      <c r="F32" t="s">
+        <v>164</v>
+      </c>
+      <c r="G32" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33">
+        <v>5017.17</v>
+      </c>
+      <c r="F33" t="s">
+        <v>164</v>
+      </c>
+      <c r="G33" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" t="s">
+        <v>163</v>
+      </c>
+      <c r="E34">
+        <v>997.15</v>
+      </c>
+      <c r="F34" t="s">
+        <v>167</v>
+      </c>
+      <c r="G34" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" t="s">
+        <v>154</v>
+      </c>
+      <c r="D35" t="s">
+        <v>163</v>
+      </c>
+      <c r="E35">
+        <v>1124.8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>166</v>
+      </c>
+      <c r="G35" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>124</v>
+      </c>
+      <c r="C36" t="s">
+        <v>152</v>
+      </c>
+      <c r="D36" t="s">
+        <v>163</v>
+      </c>
+      <c r="E36">
+        <v>907.95</v>
+      </c>
+      <c r="F36" t="s">
+        <v>164</v>
+      </c>
+      <c r="G36" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" t="s">
+        <v>163</v>
+      </c>
+      <c r="E37">
+        <v>2388.6</v>
+      </c>
+      <c r="F37" t="s">
+        <v>166</v>
+      </c>
+      <c r="G37" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" t="s">
+        <v>155</v>
+      </c>
+      <c r="D38" t="s">
+        <v>163</v>
+      </c>
+      <c r="E38">
+        <v>3155.41</v>
+      </c>
+      <c r="F38" t="s">
+        <v>167</v>
+      </c>
+      <c r="G38" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" t="s">
+        <v>163</v>
+      </c>
+      <c r="E39">
+        <v>4721.57</v>
+      </c>
+      <c r="F39" t="s">
+        <v>167</v>
+      </c>
+      <c r="G39" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" t="s">
+        <v>163</v>
+      </c>
+      <c r="E40">
+        <v>1663.07</v>
+      </c>
+      <c r="F40" t="s">
+        <v>166</v>
+      </c>
+      <c r="G40" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" t="s">
+        <v>156</v>
+      </c>
+      <c r="D41" t="s">
+        <v>163</v>
+      </c>
+      <c r="E41">
+        <v>2684.17</v>
+      </c>
+      <c r="F41" t="s">
+        <v>166</v>
+      </c>
+      <c r="G41" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" t="s">
+        <v>163</v>
+      </c>
+      <c r="E42">
+        <v>3789.83</v>
+      </c>
+      <c r="F42" t="s">
+        <v>165</v>
+      </c>
+      <c r="G42" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" t="s">
+        <v>157</v>
+      </c>
+      <c r="D43" t="s">
+        <v>163</v>
+      </c>
+      <c r="E43">
+        <v>3433.63</v>
+      </c>
+      <c r="F43" t="s">
+        <v>164</v>
+      </c>
+      <c r="G43" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" t="s">
+        <v>163</v>
+      </c>
+      <c r="E44">
+        <v>1609.15</v>
+      </c>
+      <c r="F44" t="s">
+        <v>167</v>
+      </c>
+      <c r="G44" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" t="s">
+        <v>156</v>
+      </c>
+      <c r="D45" t="s">
+        <v>163</v>
+      </c>
+      <c r="E45">
+        <v>1840.51</v>
+      </c>
+      <c r="F45" t="s">
+        <v>167</v>
+      </c>
+      <c r="G45" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" t="s">
+        <v>163</v>
+      </c>
+      <c r="E46">
+        <v>3735.6</v>
+      </c>
+      <c r="F46" t="s">
+        <v>165</v>
+      </c>
+      <c r="G46" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" t="s">
+        <v>163</v>
+      </c>
+      <c r="E47">
+        <v>3272.74</v>
+      </c>
+      <c r="F47" t="s">
+        <v>167</v>
+      </c>
+      <c r="G47" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" t="s">
+        <v>158</v>
+      </c>
+      <c r="D48" t="s">
+        <v>163</v>
+      </c>
+      <c r="E48">
+        <v>4008.26</v>
+      </c>
+      <c r="F48" t="s">
+        <v>165</v>
+      </c>
+      <c r="G48" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" t="s">
+        <v>116</v>
+      </c>
+      <c r="C49" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" t="s">
+        <v>163</v>
+      </c>
+      <c r="E49">
+        <v>1408.14</v>
+      </c>
+      <c r="F49" t="s">
+        <v>166</v>
+      </c>
+      <c r="G49" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" t="s">
+        <v>163</v>
+      </c>
+      <c r="E50">
+        <v>4950.17</v>
+      </c>
+      <c r="F50" t="s">
+        <v>167</v>
+      </c>
+      <c r="G50" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" t="s">
+        <v>142</v>
+      </c>
+      <c r="D51" t="s">
+        <v>163</v>
+      </c>
+      <c r="E51">
+        <v>265.57</v>
+      </c>
+      <c r="F51" t="s">
+        <v>164</v>
+      </c>
+      <c r="G51" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" t="s">
+        <v>114</v>
+      </c>
+      <c r="C52" t="s">
+        <v>142</v>
+      </c>
+      <c r="D52" t="s">
+        <v>163</v>
+      </c>
+      <c r="E52">
+        <v>2182.0700000000002</v>
+      </c>
+      <c r="F52" t="s">
+        <v>167</v>
+      </c>
+      <c r="G52" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" t="s">
+        <v>143</v>
+      </c>
+      <c r="D53" t="s">
+        <v>163</v>
+      </c>
+      <c r="E53">
+        <v>4442.6000000000004</v>
+      </c>
+      <c r="F53" t="s">
+        <v>165</v>
+      </c>
+      <c r="G53" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" t="s">
+        <v>144</v>
+      </c>
+      <c r="D54" t="s">
+        <v>163</v>
+      </c>
+      <c r="E54">
+        <v>2453.8200000000002</v>
+      </c>
+      <c r="F54" t="s">
+        <v>165</v>
+      </c>
+      <c r="G54" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" t="s">
+        <v>145</v>
+      </c>
+      <c r="D55" t="s">
+        <v>163</v>
+      </c>
+      <c r="E55">
+        <v>4903.47</v>
+      </c>
+      <c r="F55" t="s">
+        <v>164</v>
+      </c>
+      <c r="G55" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" t="s">
+        <v>137</v>
+      </c>
+      <c r="D56" t="s">
+        <v>163</v>
+      </c>
+      <c r="E56">
+        <v>4378.5600000000004</v>
+      </c>
+      <c r="F56" t="s">
+        <v>166</v>
+      </c>
+      <c r="G56" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" t="s">
+        <v>151</v>
+      </c>
+      <c r="D57" t="s">
+        <v>163</v>
+      </c>
+      <c r="E57">
+        <v>1478.17</v>
+      </c>
+      <c r="F57" t="s">
+        <v>164</v>
+      </c>
+      <c r="G57" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" t="s">
+        <v>151</v>
+      </c>
+      <c r="D58" t="s">
+        <v>163</v>
+      </c>
+      <c r="E58">
+        <v>2805.2</v>
+      </c>
+      <c r="F58" t="s">
+        <v>165</v>
+      </c>
+      <c r="G58" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" t="s">
+        <v>142</v>
+      </c>
+      <c r="D59" t="s">
+        <v>163</v>
+      </c>
+      <c r="E59">
+        <v>7014.3</v>
+      </c>
+      <c r="F59" t="s">
+        <v>166</v>
+      </c>
+      <c r="G59" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" t="s">
+        <v>150</v>
+      </c>
+      <c r="D60" t="s">
+        <v>163</v>
+      </c>
+      <c r="E60">
+        <v>2375.3000000000002</v>
+      </c>
+      <c r="F60" t="s">
+        <v>166</v>
+      </c>
+      <c r="G60" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" t="s">
+        <v>159</v>
+      </c>
+      <c r="D61" t="s">
+        <v>163</v>
+      </c>
+      <c r="E61">
+        <v>5487.4</v>
+      </c>
+      <c r="F61" t="s">
+        <v>165</v>
+      </c>
+      <c r="G61" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" t="s">
+        <v>148</v>
+      </c>
+      <c r="D62" t="s">
+        <v>163</v>
+      </c>
+      <c r="E62">
+        <v>2322.04</v>
+      </c>
+      <c r="F62" t="s">
+        <v>167</v>
+      </c>
+      <c r="G62" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" t="s">
+        <v>163</v>
+      </c>
+      <c r="E63">
+        <v>1980.46</v>
+      </c>
+      <c r="F63" t="s">
+        <v>166</v>
+      </c>
+      <c r="G63" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" t="s">
+        <v>151</v>
+      </c>
+      <c r="D64" t="s">
+        <v>163</v>
+      </c>
+      <c r="E64">
+        <v>3043.39</v>
+      </c>
+      <c r="F64" t="s">
+        <v>167</v>
+      </c>
+      <c r="G64" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" t="s">
+        <v>156</v>
+      </c>
+      <c r="D65" t="s">
+        <v>163</v>
+      </c>
+      <c r="E65">
+        <v>3941.8</v>
+      </c>
+      <c r="F65" t="s">
+        <v>165</v>
+      </c>
+      <c r="G65" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" t="s">
+        <v>110</v>
+      </c>
+      <c r="C66" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66" t="s">
+        <v>163</v>
+      </c>
+      <c r="E66">
+        <v>2353.0300000000002</v>
+      </c>
+      <c r="F66" t="s">
+        <v>165</v>
+      </c>
+      <c r="G66" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" t="s">
+        <v>114</v>
+      </c>
+      <c r="C67" t="s">
+        <v>142</v>
+      </c>
+      <c r="D67" t="s">
+        <v>163</v>
+      </c>
+      <c r="E67">
+        <v>346.3</v>
+      </c>
+      <c r="F67" t="s">
+        <v>167</v>
+      </c>
+      <c r="G67" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" t="s">
+        <v>150</v>
+      </c>
+      <c r="D68" t="s">
+        <v>163</v>
+      </c>
+      <c r="E68">
+        <v>4302.41</v>
+      </c>
+      <c r="F68" t="s">
+        <v>167</v>
+      </c>
+      <c r="G68" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" t="s">
+        <v>123</v>
+      </c>
+      <c r="C69" t="s">
+        <v>151</v>
+      </c>
+      <c r="D69" t="s">
+        <v>163</v>
+      </c>
+      <c r="E69">
+        <v>2890.24</v>
+      </c>
+      <c r="F69" t="s">
+        <v>164</v>
+      </c>
+      <c r="G69" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" t="s">
+        <v>110</v>
+      </c>
+      <c r="C70" t="s">
+        <v>138</v>
+      </c>
+      <c r="D70" t="s">
+        <v>163</v>
+      </c>
+      <c r="E70">
+        <v>4741.8900000000003</v>
+      </c>
+      <c r="F70" t="s">
+        <v>165</v>
+      </c>
+      <c r="G70" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" t="s">
+        <v>124</v>
+      </c>
+      <c r="C71" t="s">
+        <v>152</v>
+      </c>
+      <c r="D71" t="s">
+        <v>163</v>
+      </c>
+      <c r="E71">
+        <v>2698.42</v>
+      </c>
+      <c r="F71" t="s">
+        <v>166</v>
+      </c>
+      <c r="G71" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" t="s">
+        <v>110</v>
+      </c>
+      <c r="C72" t="s">
+        <v>138</v>
+      </c>
+      <c r="D72" t="s">
+        <v>163</v>
+      </c>
+      <c r="E72">
+        <v>5227.53</v>
+      </c>
+      <c r="F72" t="s">
+        <v>164</v>
+      </c>
+      <c r="G72" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" t="s">
+        <v>155</v>
+      </c>
+      <c r="D73" t="s">
+        <v>163</v>
+      </c>
+      <c r="E73">
+        <v>1085.42</v>
+      </c>
+      <c r="F73" t="s">
+        <v>167</v>
+      </c>
+      <c r="G73" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" t="s">
+        <v>107</v>
+      </c>
+      <c r="C74" t="s">
+        <v>135</v>
+      </c>
+      <c r="D74" t="s">
+        <v>163</v>
+      </c>
+      <c r="E74">
+        <v>5950.97</v>
+      </c>
+      <c r="F74" t="s">
+        <v>165</v>
+      </c>
+      <c r="G74" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" t="s">
+        <v>139</v>
+      </c>
+      <c r="D75" t="s">
+        <v>163</v>
+      </c>
+      <c r="E75">
+        <v>5289.88</v>
+      </c>
+      <c r="F75" t="s">
+        <v>165</v>
+      </c>
+      <c r="G75" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" t="s">
+        <v>119</v>
+      </c>
+      <c r="C76" t="s">
+        <v>147</v>
+      </c>
+      <c r="D76" t="s">
+        <v>163</v>
+      </c>
+      <c r="E76">
+        <v>4117.91</v>
+      </c>
+      <c r="F76" t="s">
+        <v>164</v>
+      </c>
+      <c r="G76" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" t="s">
+        <v>117</v>
+      </c>
+      <c r="C77" t="s">
+        <v>145</v>
+      </c>
+      <c r="D77" t="s">
+        <v>163</v>
+      </c>
+      <c r="E77">
+        <v>1257.95</v>
+      </c>
+      <c r="F77" t="s">
+        <v>164</v>
+      </c>
+      <c r="G77" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" t="s">
+        <v>118</v>
+      </c>
+      <c r="C78" t="s">
+        <v>146</v>
+      </c>
+      <c r="D78" t="s">
+        <v>163</v>
+      </c>
+      <c r="E78">
+        <v>3913.67</v>
+      </c>
+      <c r="F78" t="s">
+        <v>165</v>
+      </c>
+      <c r="G78" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79" t="s">
+        <v>131</v>
+      </c>
+      <c r="C79" t="s">
+        <v>159</v>
+      </c>
+      <c r="D79" t="s">
+        <v>163</v>
+      </c>
+      <c r="E79">
+        <v>2478.64</v>
+      </c>
+      <c r="F79" t="s">
+        <v>165</v>
+      </c>
+      <c r="G79" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C80" t="s">
+        <v>138</v>
+      </c>
+      <c r="D80" t="s">
+        <v>163</v>
+      </c>
+      <c r="E80">
+        <v>2479.56</v>
+      </c>
+      <c r="F80" t="s">
+        <v>166</v>
+      </c>
+      <c r="G80" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" t="s">
+        <v>113</v>
+      </c>
+      <c r="C81" t="s">
+        <v>141</v>
+      </c>
+      <c r="D81" t="s">
+        <v>163</v>
+      </c>
+      <c r="E81">
+        <v>3204.51</v>
+      </c>
+      <c r="F81" t="s">
+        <v>166</v>
+      </c>
+      <c r="G81" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" t="s">
+        <v>113</v>
+      </c>
+      <c r="C82" t="s">
+        <v>141</v>
+      </c>
+      <c r="D82" t="s">
+        <v>163</v>
+      </c>
+      <c r="E82">
+        <v>4630.3500000000004</v>
+      </c>
+      <c r="F82" t="s">
+        <v>167</v>
+      </c>
+      <c r="G82" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83" t="s">
+        <v>121</v>
+      </c>
+      <c r="C83" t="s">
+        <v>149</v>
+      </c>
+      <c r="D83" t="s">
+        <v>163</v>
+      </c>
+      <c r="E83">
+        <v>1124.93</v>
+      </c>
+      <c r="F83" t="s">
+        <v>164</v>
+      </c>
+      <c r="G83" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84" t="s">
+        <v>110</v>
+      </c>
+      <c r="C84" t="s">
+        <v>138</v>
+      </c>
+      <c r="D84" t="s">
+        <v>163</v>
+      </c>
+      <c r="E84">
+        <v>5663.18</v>
+      </c>
+      <c r="F84" t="s">
+        <v>167</v>
+      </c>
+      <c r="G84" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85" t="s">
+        <v>123</v>
+      </c>
+      <c r="C85" t="s">
+        <v>151</v>
+      </c>
+      <c r="D85" t="s">
+        <v>163</v>
+      </c>
+      <c r="E85">
+        <v>3326.37</v>
+      </c>
+      <c r="F85" t="s">
+        <v>167</v>
+      </c>
+      <c r="G85" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86" t="s">
+        <v>115</v>
+      </c>
+      <c r="C86" t="s">
+        <v>143</v>
+      </c>
+      <c r="D86" t="s">
+        <v>163</v>
+      </c>
+      <c r="E86">
+        <v>5342</v>
+      </c>
+      <c r="F86" t="s">
+        <v>167</v>
+      </c>
+      <c r="G86" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87" t="s">
+        <v>132</v>
+      </c>
+      <c r="C87" t="s">
+        <v>160</v>
+      </c>
+      <c r="D87" t="s">
+        <v>163</v>
+      </c>
+      <c r="E87">
+        <v>6607.77</v>
+      </c>
+      <c r="F87" t="s">
+        <v>167</v>
+      </c>
+      <c r="G87" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88" t="s">
+        <v>110</v>
+      </c>
+      <c r="C88" t="s">
+        <v>138</v>
+      </c>
+      <c r="D88" t="s">
+        <v>163</v>
+      </c>
+      <c r="E88">
+        <v>338.33</v>
+      </c>
+      <c r="F88" t="s">
+        <v>165</v>
+      </c>
+      <c r="G88" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89" t="s">
+        <v>116</v>
+      </c>
+      <c r="C89" t="s">
+        <v>144</v>
+      </c>
+      <c r="D89" t="s">
+        <v>163</v>
+      </c>
+      <c r="E89">
+        <v>3627.02</v>
+      </c>
+      <c r="F89" t="s">
+        <v>167</v>
+      </c>
+      <c r="G89" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90" t="s">
+        <v>118</v>
+      </c>
+      <c r="C90" t="s">
+        <v>146</v>
+      </c>
+      <c r="D90" t="s">
+        <v>163</v>
+      </c>
+      <c r="E90">
+        <v>4963.8900000000003</v>
+      </c>
+      <c r="F90" t="s">
+        <v>165</v>
+      </c>
+      <c r="G90" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91" t="s">
+        <v>133</v>
+      </c>
+      <c r="C91" t="s">
+        <v>161</v>
+      </c>
+      <c r="D91" t="s">
+        <v>163</v>
+      </c>
+      <c r="E91">
+        <v>1484.65</v>
+      </c>
+      <c r="F91" t="s">
+        <v>165</v>
+      </c>
+      <c r="G91" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92" t="s">
+        <v>123</v>
+      </c>
+      <c r="C92" t="s">
+        <v>151</v>
+      </c>
+      <c r="D92" t="s">
+        <v>163</v>
+      </c>
+      <c r="E92">
+        <v>4531.88</v>
+      </c>
+      <c r="F92" t="s">
+        <v>166</v>
+      </c>
+      <c r="G92" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C93" t="s">
+        <v>145</v>
+      </c>
+      <c r="D93" t="s">
+        <v>163</v>
+      </c>
+      <c r="E93">
+        <v>1955.33</v>
+      </c>
+      <c r="F93" t="s">
+        <v>167</v>
+      </c>
+      <c r="G93" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94" t="s">
+        <v>108</v>
+      </c>
+      <c r="C94" t="s">
+        <v>136</v>
+      </c>
+      <c r="D94" t="s">
+        <v>163</v>
+      </c>
+      <c r="E94">
+        <v>3019.61</v>
+      </c>
+      <c r="F94" t="s">
+        <v>166</v>
+      </c>
+      <c r="G94" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95" t="s">
+        <v>129</v>
+      </c>
+      <c r="C95" t="s">
+        <v>157</v>
+      </c>
+      <c r="D95" t="s">
+        <v>163</v>
+      </c>
+      <c r="E95">
+        <v>4930.24</v>
+      </c>
+      <c r="F95" t="s">
+        <v>167</v>
+      </c>
+      <c r="G95" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96" t="s">
+        <v>134</v>
+      </c>
+      <c r="C96" t="s">
+        <v>162</v>
+      </c>
+      <c r="D96" t="s">
+        <v>163</v>
+      </c>
+      <c r="E96">
+        <v>3399.23</v>
+      </c>
+      <c r="F96" t="s">
+        <v>166</v>
+      </c>
+      <c r="G96" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97" t="s">
+        <v>125</v>
+      </c>
+      <c r="C97" t="s">
+        <v>153</v>
+      </c>
+      <c r="D97" t="s">
+        <v>163</v>
+      </c>
+      <c r="E97">
+        <v>6565.12</v>
+      </c>
+      <c r="F97" t="s">
+        <v>164</v>
+      </c>
+      <c r="G97" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98" t="s">
+        <v>115</v>
+      </c>
+      <c r="C98" t="s">
+        <v>143</v>
+      </c>
+      <c r="D98" t="s">
+        <v>163</v>
+      </c>
+      <c r="E98">
+        <v>3349.3</v>
+      </c>
+      <c r="F98" t="s">
+        <v>167</v>
+      </c>
+      <c r="G98" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99" t="s">
+        <v>131</v>
+      </c>
+      <c r="C99" t="s">
+        <v>159</v>
+      </c>
+      <c r="D99" t="s">
+        <v>163</v>
+      </c>
+      <c r="E99">
+        <v>4083.3</v>
+      </c>
+      <c r="F99" t="s">
+        <v>167</v>
+      </c>
+      <c r="G99" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100" t="s">
+        <v>114</v>
+      </c>
+      <c r="C100" t="s">
+        <v>142</v>
+      </c>
+      <c r="D100" t="s">
+        <v>163</v>
+      </c>
+      <c r="E100">
+        <v>2382.9699999999998</v>
+      </c>
+      <c r="F100" t="s">
+        <v>166</v>
+      </c>
+      <c r="G100" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101" t="s">
+        <v>118</v>
+      </c>
+      <c r="C101" t="s">
+        <v>146</v>
+      </c>
+      <c r="D101" t="s">
+        <v>163</v>
+      </c>
+      <c r="E101">
+        <v>1543.83</v>
+      </c>
+      <c r="F101" t="s">
+        <v>164</v>
+      </c>
+      <c r="G101" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
